--- a/Sorption Experiments/RaSorption_April30_2017/RaSorption_April30_2017_NoScript.xlsx
+++ b/Sorption Experiments/RaSorption_April30_2017/RaSorption_April30_2017_NoScript.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="4" activeTab="5"/>
-    <workbookView visibility="hidden" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -847,11 +846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205594144"/>
-        <c:axId val="205594928"/>
+        <c:axId val="205513792"/>
+        <c:axId val="205519280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205594144"/>
+        <c:axId val="205513792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,12 +879,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205594928"/>
+        <c:crossAx val="205519280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205594928"/>
+        <c:axId val="205519280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205594144"/>
+        <c:crossAx val="205513792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,11 +1150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205596104"/>
-        <c:axId val="205594536"/>
+        <c:axId val="205518496"/>
+        <c:axId val="205514576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205596104"/>
+        <c:axId val="205518496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,12 +1183,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205594536"/>
+        <c:crossAx val="205514576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205594536"/>
+        <c:axId val="205514576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205596104"/>
+        <c:crossAx val="205518496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1337,173 +1336,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="D2">
-            <v>1.1544444444444444</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>3.5588888888888888</v>
-          </cell>
-          <cell r="G3">
-            <v>0.42769009531437396</v>
-          </cell>
-          <cell r="I3">
-            <v>2.0953918243065921</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>14.189444444444446</v>
-          </cell>
-          <cell r="G4">
-            <v>2.1384504765718702</v>
-          </cell>
-          <cell r="I4">
-            <v>0.40458272140107415</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>27.261666666666667</v>
-          </cell>
-          <cell r="G5">
-            <v>4.2769009531437403</v>
-          </cell>
-          <cell r="I5">
-            <v>0.20150530136895764</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>133.3138888888889</v>
-          </cell>
-          <cell r="G6">
-            <v>21.384504765718699</v>
-          </cell>
-          <cell r="I6">
-            <v>2.7746415054560394E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>267.61888888888888</v>
-          </cell>
-          <cell r="F7">
-            <v>42.769009531437398</v>
-          </cell>
-          <cell r="G7">
-            <v>42.769009531437398</v>
-          </cell>
-          <cell r="I7">
-            <v>6.3817818181451417E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>1343.9216666666666</v>
-          </cell>
-          <cell r="G8">
-            <v>213.845047657187</v>
-          </cell>
-          <cell r="I8">
-            <v>2.4773082398571806E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>5624.5516666666663</v>
-          </cell>
-          <cell r="G9">
-            <v>921.74647887323954</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.1441714628506657</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0.52694379154793525</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.2192609148432805</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>4.3002759088928997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>21.183118079488228</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>42.563623553202696</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>213.90420976854736</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>Predicted Y</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>-0.86244335302746633</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>-0.46848823374427229</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>1.273270363178999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>3.4150827376553288</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>20.791161420752843</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>42.796303780178178</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>219.142648643325</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>920.50054699429393</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="6">
           <cell r="F6">
@@ -1781,8 +1614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1897,8 +1731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3056,8 +2891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6433,8 +6269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7211,8 +7048,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7346,11 +7187,11 @@
         <v>0.02</v>
       </c>
       <c r="N2">
-        <f>J2/L2</f>
+        <f t="shared" ref="N2:N29" si="0">J2/L2</f>
         <v>2.8131037243641983</v>
       </c>
       <c r="O2">
-        <f>SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
+        <f t="shared" ref="O2:O29" si="1">SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
         <v>1.6720088540519363E-2</v>
       </c>
       <c r="P2">
@@ -7362,11 +7203,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R2">
-        <f>(P2-N2*H2)/F2</f>
+        <f t="shared" ref="R2:R29" si="2">(P2-N2*H2)/F2</f>
         <v>1314.7208520414345</v>
       </c>
       <c r="T2">
-        <f>(P2-N2*H2)/P2</f>
+        <f t="shared" ref="T2:T29" si="3">(P2-N2*H2)/P2</f>
         <v>0.12300924634583582</v>
       </c>
     </row>
@@ -7415,11 +7256,11 @@
         <v>0.02</v>
       </c>
       <c r="N3">
-        <f>J3/L3</f>
+        <f t="shared" si="0"/>
         <v>2.7902063685648182</v>
       </c>
       <c r="O3">
-        <f>SQRT((M3/L3)^2+(K3/J3)^2)*N3</f>
+        <f t="shared" si="1"/>
         <v>1.6704734564290408E-2</v>
       </c>
       <c r="P3">
@@ -7431,11 +7272,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R3">
-        <f>(P3-N3*H3)/F3</f>
+        <f t="shared" si="2"/>
         <v>1391.0148537720088</v>
       </c>
       <c r="T3">
-        <f>(P3-N3*H3)/P3</f>
+        <f t="shared" si="3"/>
         <v>0.13014754314778695</v>
       </c>
     </row>
@@ -7484,11 +7325,11 @@
         <v>0.02</v>
       </c>
       <c r="N4">
-        <f>J4/L4</f>
+        <f t="shared" si="0"/>
         <v>2.9057544386764125</v>
       </c>
       <c r="O4">
-        <f>SQRT((M4/L4)^2+(K4/J4)^2)*N4</f>
+        <f t="shared" si="1"/>
         <v>1.6783348473359858E-2</v>
       </c>
       <c r="P4">
@@ -7500,11 +7341,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R4">
-        <f>(P4-N4*H4)/F4</f>
+        <f t="shared" si="2"/>
         <v>1006.0086225591796</v>
       </c>
       <c r="T4">
-        <f>(P4-N4*H4)/P4</f>
+        <f t="shared" si="3"/>
         <v>9.4125199494833195E-2</v>
       </c>
     </row>
@@ -7553,11 +7394,11 @@
         <v>0.02</v>
       </c>
       <c r="N5">
-        <f>J5/L5</f>
+        <f t="shared" si="0"/>
         <v>2.7583676351241948</v>
       </c>
       <c r="O5">
-        <f>SQRT((M5/L5)^2+(K5/J5)^2)*N5</f>
+        <f t="shared" si="1"/>
         <v>1.6683570318989954E-2</v>
       </c>
       <c r="P5">
@@ -7569,11 +7410,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R5">
-        <f>(P5-N5*H5)/F5</f>
+        <f t="shared" si="2"/>
         <v>1497.101530570035</v>
       </c>
       <c r="T5">
-        <f>(P5-N5*H5)/P5</f>
+        <f t="shared" si="3"/>
         <v>0.14007333244366421</v>
       </c>
     </row>
@@ -7622,11 +7463,11 @@
         <v>0.02</v>
       </c>
       <c r="N6">
-        <f>J6/L6</f>
+        <f t="shared" si="0"/>
         <v>2.7982323826196405</v>
       </c>
       <c r="O6">
-        <f>SQRT((M6/L6)^2+(K6/J6)^2)*N6</f>
+        <f t="shared" si="1"/>
         <v>1.6710103782300242E-2</v>
       </c>
       <c r="P6">
@@ -7638,11 +7479,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R6">
-        <f>(P6-N6*H6)/F6</f>
+        <f t="shared" si="2"/>
         <v>1364.2721706625118</v>
       </c>
       <c r="T6">
-        <f>(P6-N6*H6)/P6</f>
+        <f t="shared" si="3"/>
         <v>0.12764541709611843</v>
       </c>
     </row>
@@ -7691,11 +7532,11 @@
         <v>0.02</v>
       </c>
       <c r="N7">
-        <f>J7/L7</f>
+        <f t="shared" si="0"/>
         <v>2.8646161418433413</v>
       </c>
       <c r="O7">
-        <f>SQRT((M7/L7)^2+(K7/J7)^2)*N7</f>
+        <f t="shared" si="1"/>
         <v>1.6755036648933887E-2</v>
       </c>
       <c r="P7">
@@ -7707,11 +7548,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R7">
-        <f>(P7-N7*H7)/F7</f>
+        <f t="shared" si="2"/>
         <v>1143.0814495386255</v>
       </c>
       <c r="T7">
-        <f>(P7-N7*H7)/P7</f>
+        <f t="shared" si="3"/>
         <v>0.10695014641421423</v>
       </c>
     </row>
@@ -7760,11 +7601,11 @@
         <v>0.02</v>
       </c>
       <c r="N8">
-        <f>J8/L8</f>
+        <f t="shared" si="0"/>
         <v>1.6627172205987499</v>
       </c>
       <c r="O8">
-        <f>SQRT((M8/L8)^2+(K8/J8)^2)*N8</f>
+        <f t="shared" si="1"/>
         <v>1.6092410160363873E-2</v>
       </c>
       <c r="P8">
@@ -7776,11 +7617,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R8">
-        <f>(P8-N8*H8)/F8</f>
+        <f t="shared" si="2"/>
         <v>5147.8092958820589</v>
       </c>
       <c r="T8">
-        <f>(P8-N8*H8)/P8</f>
+        <f t="shared" si="3"/>
         <v>0.48164455658803468</v>
       </c>
     </row>
@@ -7829,11 +7670,11 @@
         <v>0.02</v>
       </c>
       <c r="N9">
-        <f>J9/L9</f>
+        <f t="shared" si="0"/>
         <v>1.9452727137453476</v>
       </c>
       <c r="O9">
-        <f>SQRT((M9/L9)^2+(K9/J9)^2)*N9</f>
+        <f t="shared" si="1"/>
         <v>1.6218615670582023E-2</v>
       </c>
       <c r="P9">
@@ -7845,11 +7686,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R9">
-        <f>(P9-N9*H9)/F9</f>
+        <f t="shared" si="2"/>
         <v>4206.334242081587</v>
       </c>
       <c r="T9">
-        <f>(P9-N9*H9)/P9</f>
+        <f t="shared" si="3"/>
         <v>0.39355731233266522</v>
       </c>
     </row>
@@ -7898,11 +7739,11 @@
         <v>0.02</v>
       </c>
       <c r="N10">
-        <f>J10/L10</f>
+        <f t="shared" si="0"/>
         <v>2.1581544452127139</v>
       </c>
       <c r="O10">
-        <f>SQRT((M10/L10)^2+(K10/J10)^2)*N10</f>
+        <f t="shared" si="1"/>
         <v>1.6325981532031866E-2</v>
       </c>
       <c r="P10">
@@ -7914,11 +7755,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R10">
-        <f>(P10-N10*H10)/F10</f>
+        <f t="shared" si="2"/>
         <v>3497.0121993407956</v>
       </c>
       <c r="T10">
-        <f>(P10-N10*H10)/P10</f>
+        <f t="shared" si="3"/>
         <v>0.3271910036531071</v>
       </c>
     </row>
@@ -7967,11 +7808,11 @@
         <v>0.02</v>
       </c>
       <c r="N11">
-        <f>J11/L11</f>
+        <f t="shared" si="0"/>
         <v>3.4577255417816706E-2</v>
       </c>
       <c r="O11">
-        <f>SQRT((M11/L11)^2+(K11/J11)^2)*N11</f>
+        <f t="shared" si="1"/>
         <v>1.5745219366304457E-2</v>
       </c>
       <c r="P11">
@@ -7983,11 +7824,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R11">
-        <f>(P11-N11*H11)/F11</f>
+        <f t="shared" si="2"/>
         <v>10572.772527859046</v>
       </c>
       <c r="T11">
-        <f>(P11-N11*H11)/P11</f>
+        <f t="shared" si="3"/>
         <v>0.98922047096040966</v>
       </c>
     </row>
@@ -8036,11 +7877,11 @@
         <v>0.02</v>
       </c>
       <c r="N12">
-        <f>J12/L12</f>
+        <f t="shared" si="0"/>
         <v>3.5678344949304927E-2</v>
       </c>
       <c r="O12">
-        <f>SQRT((M12/L12)^2+(K12/J12)^2)*N12</f>
+        <f t="shared" si="1"/>
         <v>1.5745229192484726E-2</v>
       </c>
       <c r="P12">
@@ -8052,11 +7893,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R12">
-        <f>(P12-N12*H12)/F12</f>
+        <f t="shared" si="2"/>
         <v>10569.103696953114</v>
       </c>
       <c r="T12">
-        <f>(P12-N12*H12)/P12</f>
+        <f t="shared" si="3"/>
         <v>0.98887720408059399</v>
       </c>
     </row>
@@ -8105,11 +7946,11 @@
         <v>0.02</v>
       </c>
       <c r="N13">
-        <f>J13/L13</f>
+        <f t="shared" si="0"/>
         <v>8.3250719165169365E-2</v>
       </c>
       <c r="O13">
-        <f>SQRT((M13/L13)^2+(K13/J13)^2)*N13</f>
+        <f t="shared" si="1"/>
         <v>1.57459478366863E-2</v>
       </c>
       <c r="P13">
@@ -8121,11 +7962,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R13">
-        <f>(P13-N13*H13)/F13</f>
+        <f t="shared" si="2"/>
         <v>10410.592520704065</v>
       </c>
       <c r="T13">
-        <f>(P13-N13*H13)/P13</f>
+        <f t="shared" si="3"/>
         <v>0.97404642057433755</v>
       </c>
     </row>
@@ -8169,11 +8010,11 @@
         <v>0.02</v>
       </c>
       <c r="N14">
-        <f>J14/L14</f>
+        <f t="shared" si="0"/>
         <v>0.84856100810521506</v>
       </c>
       <c r="O14">
-        <f>SQRT((M14/L14)^2+(K14/J14)^2)*N14</f>
+        <f t="shared" si="1"/>
         <v>1.5836267669011726E-2</v>
       </c>
       <c r="P14">
@@ -8185,11 +8026,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R14">
-        <f>(P14-N14*H14)/F14</f>
+        <f t="shared" si="2"/>
         <v>7997.0058927920618</v>
       </c>
       <c r="T14">
-        <f>(P14-N14*H14)/P14</f>
+        <f t="shared" si="3"/>
         <v>0.73545939612023181</v>
       </c>
     </row>
@@ -8233,11 +8074,11 @@
         <v>0.02</v>
       </c>
       <c r="N15">
-        <f>J15/L15</f>
+        <f t="shared" si="0"/>
         <v>0.85480935954293735</v>
       </c>
       <c r="O15">
-        <f>SQRT((M15/L15)^2+(K15/J15)^2)*N15</f>
+        <f t="shared" si="1"/>
         <v>1.5837611774233158E-2</v>
       </c>
       <c r="P15">
@@ -8249,11 +8090,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R15">
-        <f>(P15-N15*H15)/F15</f>
+        <f t="shared" si="2"/>
         <v>7842.894623119787</v>
       </c>
       <c r="T15">
-        <f>(P15-N15*H15)/P15</f>
+        <f t="shared" si="3"/>
         <v>0.73351145997091594</v>
       </c>
     </row>
@@ -8297,11 +8138,11 @@
         <v>0.02</v>
       </c>
       <c r="N16">
-        <f>J16/L16</f>
+        <f t="shared" si="0"/>
         <v>0.82834341237041931</v>
       </c>
       <c r="O16">
-        <f>SQRT((M16/L16)^2+(K16/J16)^2)*N16</f>
+        <f t="shared" si="1"/>
         <v>1.5831985402404519E-2</v>
       </c>
       <c r="P16">
@@ -8313,11 +8154,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R16">
-        <f>(P16-N16*H16)/F16</f>
+        <f t="shared" si="2"/>
         <v>7826.7576779883357</v>
       </c>
       <c r="T16">
-        <f>(P16-N16*H16)/P16</f>
+        <f t="shared" si="3"/>
         <v>0.74176227232311376</v>
       </c>
     </row>
@@ -8361,11 +8202,11 @@
         <v>0.02</v>
       </c>
       <c r="N17">
-        <f>J17/L17</f>
+        <f t="shared" si="0"/>
         <v>0.39041490003358126</v>
       </c>
       <c r="O17">
-        <f>SQRT((M17/L17)^2+(K17/J17)^2)*N17</f>
+        <f t="shared" si="1"/>
         <v>1.576441707527915E-2</v>
       </c>
       <c r="P17">
@@ -8377,11 +8218,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R17">
-        <f>(P17-N17*H17)/F17</f>
+        <f t="shared" si="2"/>
         <v>9206.7413282525868</v>
       </c>
       <c r="T17">
-        <f>(P17-N17*H17)/P17</f>
+        <f t="shared" si="3"/>
         <v>0.87828736834236321</v>
       </c>
     </row>
@@ -8425,11 +8266,11 @@
         <v>0.02</v>
       </c>
       <c r="N18">
-        <f>J18/L18</f>
+        <f t="shared" si="0"/>
         <v>0.40021857670550665</v>
       </c>
       <c r="O18">
-        <f>SQRT((M18/L18)^2+(K18/J18)^2)*N18</f>
+        <f t="shared" si="1"/>
         <v>1.5765400413032354E-2</v>
       </c>
       <c r="P18">
@@ -8441,11 +8282,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R18">
-        <f>(P18-N18*H18)/F18</f>
+        <f t="shared" si="2"/>
         <v>9265.5418144335526</v>
       </c>
       <c r="T18">
-        <f>(P18-N18*H18)/P18</f>
+        <f t="shared" si="3"/>
         <v>0.87523105238834109</v>
       </c>
     </row>
@@ -8489,11 +8330,11 @@
         <v>0.02</v>
       </c>
       <c r="N19">
-        <f>J19/L19</f>
+        <f t="shared" si="0"/>
         <v>0.40061656087351444</v>
       </c>
       <c r="O19">
-        <f>SQRT((M19/L19)^2+(K19/J19)^2)*N19</f>
+        <f t="shared" si="1"/>
         <v>1.5765440845788754E-2</v>
       </c>
       <c r="P19">
@@ -8505,11 +8346,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R19">
-        <f>(P19-N19*H19)/F19</f>
+        <f t="shared" si="2"/>
         <v>9325.7846697852456</v>
       </c>
       <c r="T19">
-        <f>(P19-N19*H19)/P19</f>
+        <f t="shared" si="3"/>
         <v>0.87510698002214271</v>
       </c>
     </row>
@@ -8553,11 +8394,11 @@
         <v>0.02</v>
       </c>
       <c r="N20">
-        <f>J20/L20</f>
+        <f t="shared" si="0"/>
         <v>0.40613527466988897</v>
       </c>
       <c r="O20">
-        <f>SQRT((M20/L20)^2+(K20/J20)^2)*N20</f>
+        <f t="shared" si="1"/>
         <v>1.5766005644804414E-2</v>
       </c>
       <c r="P20">
@@ -8569,11 +8410,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R20">
-        <f>(P20-N20*H20)/F20</f>
+        <f t="shared" si="2"/>
         <v>9185.3851534720798</v>
       </c>
       <c r="T20">
-        <f>(P20-N20*H20)/P20</f>
+        <f t="shared" si="3"/>
         <v>0.87338650987752398</v>
       </c>
     </row>
@@ -8617,11 +8458,11 @@
         <v>0.02</v>
       </c>
       <c r="N21">
-        <f>J21/L21</f>
+        <f t="shared" si="0"/>
         <v>0.44990026701181229</v>
       </c>
       <c r="O21">
-        <f>SQRT((M21/L21)^2+(K21/J21)^2)*N21</f>
+        <f t="shared" si="1"/>
         <v>1.5770757481735277E-2</v>
       </c>
       <c r="P21">
@@ -8633,11 +8474,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R21">
-        <f>(P21-N21*H21)/F21</f>
+        <f t="shared" si="2"/>
         <v>9285.4460588116526</v>
       </c>
       <c r="T21">
-        <f>(P21-N21*H21)/P21</f>
+        <f t="shared" si="3"/>
         <v>0.85974268534123288</v>
       </c>
     </row>
@@ -8681,11 +8522,11 @@
         <v>0.02</v>
       </c>
       <c r="N22">
-        <f>J22/L22</f>
+        <f t="shared" si="0"/>
         <v>0.40829765531606466</v>
       </c>
       <c r="O22">
-        <f>SQRT((M22/L22)^2+(K22/J22)^2)*N22</f>
+        <f t="shared" si="1"/>
         <v>1.5766229049713386E-2</v>
       </c>
       <c r="P22">
@@ -8697,11 +8538,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R22">
-        <f>(P22-N22*H22)/F22</f>
+        <f t="shared" si="2"/>
         <v>9178.2953808616676</v>
       </c>
       <c r="T22">
-        <f>(P22-N22*H22)/P22</f>
+        <f t="shared" si="3"/>
         <v>0.87271238335451229</v>
       </c>
     </row>
@@ -8745,11 +8586,11 @@
         <v>0.02</v>
       </c>
       <c r="N23">
-        <f>J23/L23</f>
+        <f t="shared" si="0"/>
         <v>0.40255341715781884</v>
       </c>
       <c r="O23">
-        <f>SQRT((M23/L23)^2+(K23/J23)^2)*N23</f>
+        <f t="shared" si="1"/>
         <v>1.5765638190740699E-2</v>
       </c>
       <c r="P23">
@@ -8761,11 +8602,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R23">
-        <f>(P23-N23*H23)/F23</f>
+        <f t="shared" si="2"/>
         <v>9257.8360703665167</v>
       </c>
       <c r="T23">
-        <f>(P23-N23*H23)/P23</f>
+        <f t="shared" si="3"/>
         <v>0.87450316117331017</v>
       </c>
     </row>
@@ -8809,11 +8650,11 @@
         <v>0.02</v>
       </c>
       <c r="N24">
-        <f>J24/L24</f>
+        <f t="shared" si="0"/>
         <v>0.30437072291029715</v>
       </c>
       <c r="O24">
-        <f>SQRT((M24/L24)^2+(K24/J24)^2)*N24</f>
+        <f t="shared" si="1"/>
         <v>1.5756830794755008E-2</v>
       </c>
       <c r="P24">
@@ -8825,11 +8666,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R24">
-        <f>(P24-N24*H24)/F24</f>
+        <f t="shared" si="2"/>
         <v>9581.8713649127931</v>
       </c>
       <c r="T24">
-        <f>(P24-N24*H24)/P24</f>
+        <f t="shared" si="3"/>
         <v>0.90511181391447115</v>
       </c>
     </row>
@@ -8873,11 +8714,11 @@
         <v>0.02</v>
       </c>
       <c r="N25">
-        <f>J25/L25</f>
+        <f t="shared" si="0"/>
         <v>0.4214311328603218</v>
       </c>
       <c r="O25">
-        <f>SQRT((M25/L25)^2+(K25/J25)^2)*N25</f>
+        <f t="shared" si="1"/>
         <v>1.5767611339250334E-2</v>
       </c>
       <c r="P25">
@@ -8889,11 +8730,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R25">
-        <f>(P25-N25*H25)/F25</f>
+        <f t="shared" si="2"/>
         <v>9318.5505472192363</v>
       </c>
       <c r="T25">
-        <f>(P25-N25*H25)/P25</f>
+        <f t="shared" si="3"/>
         <v>0.86861799526996297</v>
       </c>
     </row>
@@ -8938,11 +8779,11 @@
         <v>0.02</v>
       </c>
       <c r="N26">
-        <f>J26/L26</f>
+        <f t="shared" si="0"/>
         <v>2.9130508150898895</v>
       </c>
       <c r="O26">
-        <f>SQRT((M26/L26)^2+(K26/J26)^2)*N26</f>
+        <f t="shared" si="1"/>
         <v>1.6788407034375341E-2</v>
       </c>
       <c r="P26">
@@ -8954,11 +8795,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R26" t="e">
-        <f>(P26-N26*H26)/F26</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26">
-        <f>(P26-N26*H26)/P26</f>
+        <f t="shared" si="3"/>
         <v>9.1850539447861035E-2</v>
       </c>
     </row>
@@ -9002,11 +8843,11 @@
         <v>0.02</v>
       </c>
       <c r="N27">
-        <f>J27/L27</f>
+        <f t="shared" si="0"/>
         <v>2.8408034224575411</v>
       </c>
       <c r="O27">
-        <f>SQRT((M27/L27)^2+(K27/J27)^2)*N27</f>
+        <f t="shared" si="1"/>
         <v>1.6738811394088469E-2</v>
       </c>
       <c r="P27">
@@ -9018,11 +8859,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R27" t="e">
-        <f>(P27-N27*H27)/F27</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27">
-        <f>(P27-N27*H27)/P27</f>
+        <f t="shared" si="3"/>
         <v>0.11437380965842241</v>
       </c>
     </row>
@@ -9066,11 +8907,11 @@
         <v>0.02</v>
       </c>
       <c r="N28">
-        <f>J28/L28</f>
+        <f t="shared" si="0"/>
         <v>2.5973167084703754</v>
       </c>
       <c r="O28">
-        <f>SQRT((M28/L28)^2+(K28/J28)^2)*N28</f>
+        <f t="shared" si="1"/>
         <v>1.657984821652712E-2</v>
       </c>
       <c r="P28">
@@ -9082,11 +8923,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R28" t="e">
-        <f>(P28-N28*H28)/F28</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28">
-        <f>(P28-N28*H28)/P28</f>
+        <f t="shared" si="3"/>
         <v>0.19028128329864258</v>
       </c>
     </row>
@@ -9130,11 +8971,11 @@
         <v>0.02</v>
       </c>
       <c r="N29">
-        <f>J29/L29</f>
+        <f t="shared" si="0"/>
         <v>2.6739949915065435</v>
       </c>
       <c r="O29">
-        <f>SQRT((M29/L29)^2+(K29/J29)^2)*N29</f>
+        <f t="shared" si="1"/>
         <v>1.6628534132781769E-2</v>
       </c>
       <c r="P29">
@@ -9146,11 +8987,11 @@
         <v>14.211622984040488</v>
       </c>
       <c r="R29" t="e">
-        <f>(P29-N29*H29)/F29</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29">
-        <f>(P29-N29*H29)/P29</f>
+        <f t="shared" si="3"/>
         <v>0.16637667407773829</v>
       </c>
     </row>
@@ -9163,10 +9004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Sorption Experiments/RaSorption_April30_2017/RaSorption_April30_2017_NoScript.xlsx
+++ b/Sorption Experiments/RaSorption_April30_2017/RaSorption_April30_2017_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="148">
   <si>
     <t>Parameters</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -846,11 +851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205513792"/>
-        <c:axId val="205519280"/>
+        <c:axId val="204793960"/>
+        <c:axId val="204793176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205513792"/>
+        <c:axId val="204793960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,19 +877,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205519280"/>
+        <c:crossAx val="204793176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205519280"/>
+        <c:axId val="204793176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,21 +910,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205513792"/>
+        <c:crossAx val="204793960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -965,7 +967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1150,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205518496"/>
-        <c:axId val="205514576"/>
+        <c:axId val="204791608"/>
+        <c:axId val="204796312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205518496"/>
+        <c:axId val="204791608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,19 +1177,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205514576"/>
+        <c:crossAx val="204796312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205514576"/>
+        <c:axId val="204796312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,21 +1210,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205518496"/>
+        <c:crossAx val="204791608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1321,6 +1319,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1344,6 +1343,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2891,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -7049,10 +7049,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9002,18 +9002,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9045,13 +9051,19 @@
         <v>93</v>
       </c>
       <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -9092,11 +9104,19 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!F2:F4)</f>
+        <v>3.0011999999999997E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!F2:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!J2:J4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -9137,11 +9157,19 @@
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!F5:F7)</f>
+        <v>3.0011999999999997E-2</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!F5:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!J5:J7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9182,11 +9210,19 @@
         <v>1.7320508075688915E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!F8:F10)</f>
+        <v>3.0011999999999997E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!F8:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!J8:J10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -9227,11 +9263,19 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!F11:F13)</f>
+        <v>3.0011999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!F11:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!J11:J13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -9272,11 +9316,19 @@
         <v>2.3094010767585053E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!F14:F16)</f>
+        <v>2.9966666666666666E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!F14:F16)</f>
+        <v>4.5092497528229021E-4</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!J14:J16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -9317,11 +9369,19 @@
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!F17:F19)</f>
+        <v>3.0333333333333334E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!F17:F19)</f>
+        <v>2.5166114784235861E-4</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!J17:J19)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -9362,11 +9422,19 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="K8">
+        <f>AVERAGE('Bottle Results'!F20:F22)</f>
+        <v>3.0233333333333334E-2</v>
+      </c>
+      <c r="L8">
+        <f>_xlfn.STDEV.S('Bottle Results'!F20:F22)</f>
+        <v>4.6188021535169981E-4</v>
+      </c>
+      <c r="M8">
         <f>COUNT('Bottle Results'!J20:J22)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -9407,6 +9475,14 @@
         <v>2.0816659994661878E-2</v>
       </c>
       <c r="K9">
+        <f>AVERAGE('Bottle Results'!F23:F25)</f>
+        <v>3.0166666666666665E-2</v>
+      </c>
+      <c r="L9">
+        <f>_xlfn.STDEV.S('Bottle Results'!F23:F25)</f>
+        <v>2.3094010767585091E-4</v>
+      </c>
+      <c r="M9">
         <f>COUNT('Bottle Results'!J23:J25)</f>
         <v>3</v>
       </c>
